--- a/Checklist2modelli.xlsx
+++ b/Checklist2modelli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="19155" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="19155" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Funzioni e attività" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="329">
   <si>
     <t>Aree PDF :</t>
   </si>
@@ -981,9 +981,6 @@
     <t>d161</t>
   </si>
   <si>
-    <t>DIRIGERE L'ATTENZIONI</t>
-  </si>
-  <si>
     <t>d166</t>
   </si>
   <si>
@@ -1216,13 +1213,19 @@
   </si>
   <si>
     <t>e590 SERVIZI E POLITICHE DEL LAVORO</t>
+  </si>
+  <si>
+    <t>DIRIGERE L'ATTENZIONE</t>
+  </si>
+  <si>
+    <t>Alunno:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1371,26 +1374,11 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1409,27 +1397,45 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="0"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,12 +1462,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1469,18 +1469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,12 +1486,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1766,16 +1784,27 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1787,17 +1816,207 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1810,7 +2029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2019,10 +2238,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2043,48 +2262,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2095,64 +2445,80 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2535,7 +2901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A187" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A232" sqref="A232:XFD232"/>
     </sheetView>
   </sheetViews>
@@ -2603,109 +2969,109 @@
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
     </row>
     <row r="12" spans="1:14" ht="18.75">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
     </row>
     <row r="14" spans="1:14" ht="25.5">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="166"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
@@ -2747,19 +3113,19 @@
       <c r="A19" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="166"/>
     </row>
     <row r="20" spans="1:14" ht="18.75">
       <c r="A20" s="15" t="s">
@@ -2772,145 +3138,145 @@
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="140"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
     </row>
     <row r="24" spans="1:14" ht="25.5">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="140"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
     </row>
     <row r="25" spans="1:14" ht="25.5">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="166"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="166"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="140"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="70" t="s">
@@ -2967,13 +3333,13 @@
       <c r="A40" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="142" t="s">
+      <c r="B40" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="144"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="169"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="55" t="s">
@@ -3275,21 +3641,21 @@
       <c r="A65" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="127" t="s">
+      <c r="B65" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="129"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="171"/>
+      <c r="E65" s="171"/>
+      <c r="F65" s="172"/>
       <c r="G65" s="83"/>
-      <c r="H65" s="136" t="s">
+      <c r="H65" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I65" s="137"/>
-      <c r="J65" s="137"/>
-      <c r="K65" s="137"/>
-      <c r="L65" s="138"/>
+      <c r="I65" s="174"/>
+      <c r="J65" s="174"/>
+      <c r="K65" s="174"/>
+      <c r="L65" s="175"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="40" t="s">
@@ -3655,21 +4021,21 @@
       <c r="A86" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="133" t="s">
+      <c r="B86" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="134"/>
-      <c r="D86" s="134"/>
-      <c r="E86" s="134"/>
-      <c r="F86" s="135"/>
+      <c r="C86" s="177"/>
+      <c r="D86" s="177"/>
+      <c r="E86" s="177"/>
+      <c r="F86" s="178"/>
       <c r="G86" s="83"/>
-      <c r="H86" s="136" t="s">
+      <c r="H86" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I86" s="137"/>
-      <c r="J86" s="137"/>
-      <c r="K86" s="137"/>
-      <c r="L86" s="138"/>
+      <c r="I86" s="174"/>
+      <c r="J86" s="174"/>
+      <c r="K86" s="174"/>
+      <c r="L86" s="175"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="75" t="s">
@@ -3859,21 +4225,21 @@
       <c r="A96" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="133" t="s">
+      <c r="B96" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="134"/>
-      <c r="D96" s="134"/>
-      <c r="E96" s="134"/>
-      <c r="F96" s="135"/>
+      <c r="C96" s="177"/>
+      <c r="D96" s="177"/>
+      <c r="E96" s="177"/>
+      <c r="F96" s="178"/>
       <c r="G96" s="83"/>
-      <c r="H96" s="136" t="s">
+      <c r="H96" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I96" s="137"/>
-      <c r="J96" s="137"/>
-      <c r="K96" s="137"/>
-      <c r="L96" s="138"/>
+      <c r="I96" s="174"/>
+      <c r="J96" s="174"/>
+      <c r="K96" s="174"/>
+      <c r="L96" s="175"/>
       <c r="P96" s="83"/>
     </row>
     <row r="97" spans="1:13">
@@ -4009,21 +4375,21 @@
       <c r="A104" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B104" s="133" t="s">
+      <c r="B104" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C104" s="134"/>
-      <c r="D104" s="134"/>
-      <c r="E104" s="134"/>
-      <c r="F104" s="135"/>
+      <c r="C104" s="177"/>
+      <c r="D104" s="177"/>
+      <c r="E104" s="177"/>
+      <c r="F104" s="178"/>
       <c r="G104" s="83"/>
-      <c r="H104" s="136" t="s">
+      <c r="H104" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I104" s="137"/>
-      <c r="J104" s="137"/>
-      <c r="K104" s="137"/>
-      <c r="L104" s="138"/>
+      <c r="I104" s="174"/>
+      <c r="J104" s="174"/>
+      <c r="K104" s="174"/>
+      <c r="L104" s="175"/>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="45" t="s">
@@ -4211,21 +4577,21 @@
       <c r="A114" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B114" s="133" t="s">
+      <c r="B114" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C114" s="134"/>
-      <c r="D114" s="134"/>
-      <c r="E114" s="134"/>
-      <c r="F114" s="135"/>
+      <c r="C114" s="177"/>
+      <c r="D114" s="177"/>
+      <c r="E114" s="177"/>
+      <c r="F114" s="178"/>
       <c r="G114" s="83"/>
-      <c r="H114" s="136" t="s">
+      <c r="H114" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I114" s="137"/>
-      <c r="J114" s="137"/>
-      <c r="K114" s="137"/>
-      <c r="L114" s="138"/>
+      <c r="I114" s="174"/>
+      <c r="J114" s="174"/>
+      <c r="K114" s="174"/>
+      <c r="L114" s="175"/>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="45" t="s">
@@ -4312,21 +4678,21 @@
       <c r="A121" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B121" s="133" t="s">
+      <c r="B121" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="134"/>
-      <c r="D121" s="134"/>
-      <c r="E121" s="134"/>
-      <c r="F121" s="135"/>
+      <c r="C121" s="177"/>
+      <c r="D121" s="177"/>
+      <c r="E121" s="177"/>
+      <c r="F121" s="178"/>
       <c r="G121" s="83"/>
-      <c r="H121" s="136" t="s">
+      <c r="H121" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I121" s="137"/>
-      <c r="J121" s="137"/>
-      <c r="K121" s="137"/>
-      <c r="L121" s="138"/>
+      <c r="I121" s="174"/>
+      <c r="J121" s="174"/>
+      <c r="K121" s="174"/>
+      <c r="L121" s="175"/>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="45" t="s">
@@ -4723,33 +5089,33 @@
       <c r="A138" s="19"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="132" t="s">
+      <c r="A139" s="179" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A140" s="139"/>
+      <c r="A140" s="180"/>
       <c r="G140" s="83"/>
     </row>
     <row r="141" spans="1:15" ht="15" customHeight="1">
       <c r="A141" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B141" s="133" t="s">
+      <c r="B141" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C141" s="134"/>
-      <c r="D141" s="134"/>
-      <c r="E141" s="134"/>
-      <c r="F141" s="135"/>
+      <c r="C141" s="177"/>
+      <c r="D141" s="177"/>
+      <c r="E141" s="177"/>
+      <c r="F141" s="178"/>
       <c r="G141" s="83"/>
-      <c r="H141" s="136" t="s">
+      <c r="H141" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I141" s="137"/>
-      <c r="J141" s="137"/>
-      <c r="K141" s="137"/>
-      <c r="L141" s="138"/>
+      <c r="I141" s="174"/>
+      <c r="J141" s="174"/>
+      <c r="K141" s="174"/>
+      <c r="L141" s="175"/>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="40" t="s">
@@ -4991,34 +5357,34 @@
       <c r="A153" s="14"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="132" t="s">
+      <c r="A154" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="B154" s="132"/>
-      <c r="C154" s="132"/>
-      <c r="D154" s="132"/>
-      <c r="E154" s="132"/>
-      <c r="F154" s="132"/>
-      <c r="G154" s="132"/>
-      <c r="H154" s="132"/>
-      <c r="I154" s="132"/>
-      <c r="J154" s="132"/>
-      <c r="K154" s="132"/>
-      <c r="L154" s="132"/>
+      <c r="B154" s="179"/>
+      <c r="C154" s="179"/>
+      <c r="D154" s="179"/>
+      <c r="E154" s="179"/>
+      <c r="F154" s="179"/>
+      <c r="G154" s="179"/>
+      <c r="H154" s="179"/>
+      <c r="I154" s="179"/>
+      <c r="J154" s="179"/>
+      <c r="K154" s="179"/>
+      <c r="L154" s="179"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="132"/>
-      <c r="B155" s="132"/>
-      <c r="C155" s="132"/>
-      <c r="D155" s="132"/>
-      <c r="E155" s="132"/>
-      <c r="F155" s="132"/>
-      <c r="G155" s="132"/>
-      <c r="H155" s="132"/>
-      <c r="I155" s="132"/>
-      <c r="J155" s="132"/>
-      <c r="K155" s="132"/>
-      <c r="L155" s="132"/>
+      <c r="A155" s="179"/>
+      <c r="B155" s="179"/>
+      <c r="C155" s="179"/>
+      <c r="D155" s="179"/>
+      <c r="E155" s="179"/>
+      <c r="F155" s="179"/>
+      <c r="G155" s="179"/>
+      <c r="H155" s="179"/>
+      <c r="I155" s="179"/>
+      <c r="J155" s="179"/>
+      <c r="K155" s="179"/>
+      <c r="L155" s="179"/>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="39" t="s">
@@ -5032,21 +5398,21 @@
       <c r="A158" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B158" s="133" t="s">
+      <c r="B158" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C158" s="134"/>
-      <c r="D158" s="134"/>
-      <c r="E158" s="134"/>
-      <c r="F158" s="135"/>
+      <c r="C158" s="177"/>
+      <c r="D158" s="177"/>
+      <c r="E158" s="177"/>
+      <c r="F158" s="178"/>
       <c r="G158" s="83"/>
-      <c r="H158" s="136" t="s">
+      <c r="H158" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I158" s="137"/>
-      <c r="J158" s="137"/>
-      <c r="K158" s="137"/>
-      <c r="L158" s="138"/>
+      <c r="I158" s="174"/>
+      <c r="J158" s="174"/>
+      <c r="K158" s="174"/>
+      <c r="L158" s="175"/>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="28" t="s">
@@ -5178,21 +5544,21 @@
       <c r="A165" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B165" s="133" t="s">
+      <c r="B165" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C165" s="134"/>
-      <c r="D165" s="134"/>
-      <c r="E165" s="134"/>
-      <c r="F165" s="135"/>
+      <c r="C165" s="177"/>
+      <c r="D165" s="177"/>
+      <c r="E165" s="177"/>
+      <c r="F165" s="178"/>
       <c r="G165" s="83"/>
-      <c r="H165" s="136" t="s">
+      <c r="H165" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I165" s="137"/>
-      <c r="J165" s="137"/>
-      <c r="K165" s="137"/>
-      <c r="L165" s="138"/>
+      <c r="I165" s="174"/>
+      <c r="J165" s="174"/>
+      <c r="K165" s="174"/>
+      <c r="L165" s="175"/>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="40" t="s">
@@ -5327,21 +5693,21 @@
       <c r="A173" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B173" s="133" t="s">
+      <c r="B173" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C173" s="134"/>
-      <c r="D173" s="134"/>
-      <c r="E173" s="134"/>
-      <c r="F173" s="135"/>
+      <c r="C173" s="177"/>
+      <c r="D173" s="177"/>
+      <c r="E173" s="177"/>
+      <c r="F173" s="178"/>
       <c r="G173" s="83"/>
-      <c r="H173" s="136" t="s">
+      <c r="H173" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I173" s="137"/>
-      <c r="J173" s="137"/>
-      <c r="K173" s="137"/>
-      <c r="L173" s="138"/>
+      <c r="I173" s="174"/>
+      <c r="J173" s="174"/>
+      <c r="K173" s="174"/>
+      <c r="L173" s="175"/>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="45" t="s">
@@ -5428,12 +5794,12 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="130" t="s">
+      <c r="A181" s="181" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="131"/>
+      <c r="A182" s="182"/>
     </row>
     <row r="183" spans="1:14" ht="15.75" thickBot="1">
       <c r="A183" s="19"/>
@@ -5443,21 +5809,21 @@
       <c r="A184" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B184" s="133" t="s">
+      <c r="B184" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C184" s="134"/>
-      <c r="D184" s="134"/>
-      <c r="E184" s="134"/>
-      <c r="F184" s="135"/>
+      <c r="C184" s="177"/>
+      <c r="D184" s="177"/>
+      <c r="E184" s="177"/>
+      <c r="F184" s="178"/>
       <c r="G184" s="83"/>
-      <c r="H184" s="136" t="s">
+      <c r="H184" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I184" s="137"/>
-      <c r="J184" s="137"/>
-      <c r="K184" s="137"/>
-      <c r="L184" s="138"/>
+      <c r="I184" s="174"/>
+      <c r="J184" s="174"/>
+      <c r="K184" s="174"/>
+      <c r="L184" s="175"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="45" t="s">
@@ -5806,12 +6172,12 @@
       </c>
     </row>
     <row r="201" spans="1:13">
-      <c r="A201" s="130" t="s">
+      <c r="A201" s="181" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="131"/>
+      <c r="A202" s="182"/>
     </row>
     <row r="203" spans="1:13" ht="15.75" thickBot="1">
       <c r="A203" s="39" t="s">
@@ -5823,21 +6189,21 @@
       <c r="A204" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B204" s="133" t="s">
+      <c r="B204" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C204" s="134"/>
-      <c r="D204" s="134"/>
-      <c r="E204" s="134"/>
-      <c r="F204" s="135"/>
+      <c r="C204" s="177"/>
+      <c r="D204" s="177"/>
+      <c r="E204" s="177"/>
+      <c r="F204" s="178"/>
       <c r="G204" s="83"/>
-      <c r="H204" s="127" t="s">
+      <c r="H204" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="I204" s="128"/>
-      <c r="J204" s="128"/>
-      <c r="K204" s="128"/>
-      <c r="L204" s="129"/>
+      <c r="I204" s="171"/>
+      <c r="J204" s="171"/>
+      <c r="K204" s="171"/>
+      <c r="L204" s="172"/>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="17" t="s">
@@ -5968,21 +6334,21 @@
       <c r="A211" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B211" s="133" t="s">
+      <c r="B211" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C211" s="134"/>
-      <c r="D211" s="134"/>
-      <c r="E211" s="134"/>
-      <c r="F211" s="135"/>
+      <c r="C211" s="177"/>
+      <c r="D211" s="177"/>
+      <c r="E211" s="177"/>
+      <c r="F211" s="178"/>
       <c r="G211" s="83"/>
-      <c r="H211" s="136" t="s">
+      <c r="H211" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I211" s="137"/>
-      <c r="J211" s="137"/>
-      <c r="K211" s="137"/>
-      <c r="L211" s="138"/>
+      <c r="I211" s="174"/>
+      <c r="J211" s="174"/>
+      <c r="K211" s="174"/>
+      <c r="L211" s="175"/>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="32" t="s">
@@ -6055,7 +6421,7 @@
       <c r="F214" s="73">
         <v>4</v>
       </c>
-      <c r="G214" s="152"/>
+      <c r="G214" s="103"/>
       <c r="H214" s="74">
         <v>0</v>
       </c>
@@ -6215,12 +6581,12 @@
       </c>
     </row>
     <row r="222" spans="1:13">
-      <c r="A222" s="130" t="s">
+      <c r="A222" s="181" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="223" spans="1:13">
-      <c r="A223" s="131"/>
+      <c r="A223" s="182"/>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="19"/>
@@ -6234,21 +6600,21 @@
       <c r="A226" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B226" s="133" t="s">
+      <c r="B226" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C226" s="134"/>
-      <c r="D226" s="134"/>
-      <c r="E226" s="134"/>
-      <c r="F226" s="135"/>
-      <c r="G226" s="145"/>
-      <c r="H226" s="136" t="s">
+      <c r="C226" s="177"/>
+      <c r="D226" s="177"/>
+      <c r="E226" s="177"/>
+      <c r="F226" s="178"/>
+      <c r="G226" s="96"/>
+      <c r="H226" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I226" s="137"/>
-      <c r="J226" s="137"/>
-      <c r="K226" s="137"/>
-      <c r="L226" s="138"/>
+      <c r="I226" s="174"/>
+      <c r="J226" s="174"/>
+      <c r="K226" s="174"/>
+      <c r="L226" s="175"/>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="49" t="s">
@@ -6326,21 +6692,21 @@
       <c r="A231" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B231" s="133" t="s">
+      <c r="B231" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C231" s="134"/>
-      <c r="D231" s="134"/>
-      <c r="E231" s="134"/>
-      <c r="F231" s="135"/>
-      <c r="G231" s="145"/>
-      <c r="H231" s="136" t="s">
+      <c r="C231" s="177"/>
+      <c r="D231" s="177"/>
+      <c r="E231" s="177"/>
+      <c r="F231" s="178"/>
+      <c r="G231" s="96"/>
+      <c r="H231" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="I231" s="137"/>
-      <c r="J231" s="137"/>
-      <c r="K231" s="137"/>
-      <c r="L231" s="138"/>
+      <c r="I231" s="174"/>
+      <c r="J231" s="174"/>
+      <c r="K231" s="174"/>
+      <c r="L231" s="175"/>
     </row>
     <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="35" t="s">
@@ -6351,7 +6717,7 @@
       <c r="D232" s="54"/>
       <c r="E232" s="54"/>
       <c r="F232" s="54"/>
-      <c r="G232" s="151"/>
+      <c r="G232" s="102"/>
       <c r="H232" s="54"/>
       <c r="I232" s="54"/>
       <c r="J232" s="54"/>
@@ -6430,47 +6796,47 @@
       <c r="A236" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="B236" s="149">
-        <v>0</v>
-      </c>
-      <c r="C236" s="149">
-        <v>1</v>
-      </c>
-      <c r="D236" s="149">
-        <v>2</v>
-      </c>
-      <c r="E236" s="149">
-        <v>3</v>
-      </c>
-      <c r="F236" s="149">
+      <c r="B236" s="100">
+        <v>0</v>
+      </c>
+      <c r="C236" s="100">
+        <v>1</v>
+      </c>
+      <c r="D236" s="100">
+        <v>2</v>
+      </c>
+      <c r="E236" s="100">
+        <v>3</v>
+      </c>
+      <c r="F236" s="100">
         <v>4</v>
       </c>
       <c r="G236" s="82"/>
-      <c r="H236" s="150">
-        <v>0</v>
-      </c>
-      <c r="I236" s="150">
-        <v>1</v>
-      </c>
-      <c r="J236" s="150">
-        <v>2</v>
-      </c>
-      <c r="K236" s="150">
-        <v>3</v>
-      </c>
-      <c r="L236" s="150">
+      <c r="H236" s="101">
+        <v>0</v>
+      </c>
+      <c r="I236" s="101">
+        <v>1</v>
+      </c>
+      <c r="J236" s="101">
+        <v>2</v>
+      </c>
+      <c r="K236" s="101">
+        <v>3</v>
+      </c>
+      <c r="L236" s="101">
         <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:13" s="82" customFormat="1" ht="20.25">
       <c r="A237" s="84"/>
-      <c r="B237" s="146" t="s">
+      <c r="B237" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="C237" s="147"/>
-      <c r="D237" s="147"/>
-      <c r="E237" s="147"/>
-      <c r="F237" s="148"/>
+      <c r="C237" s="98"/>
+      <c r="D237" s="98"/>
+      <c r="E237" s="98"/>
+      <c r="F237" s="99"/>
       <c r="H237" s="85"/>
       <c r="I237" s="85"/>
       <c r="J237" s="85"/>
@@ -6479,7 +6845,7 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B238" s="81"/>
       <c r="C238" s="81"/>
@@ -6495,7 +6861,7 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B239" s="81"/>
       <c r="C239" s="81"/>
@@ -6511,7 +6877,7 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B240" s="81"/>
       <c r="C240" s="81"/>
@@ -6527,7 +6893,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B241" s="81"/>
       <c r="C241" s="81"/>
@@ -6543,7 +6909,7 @@
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B242" s="81"/>
       <c r="C242" s="81"/>
@@ -6559,7 +6925,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B243" s="81"/>
       <c r="C243" s="81"/>
@@ -6575,7 +6941,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B244" s="81"/>
       <c r="C244" s="81"/>
@@ -6591,7 +6957,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B245" s="81"/>
       <c r="C245" s="81"/>
@@ -6620,44 +6986,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B14:N14"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B19:N19"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B24:N24"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="B28:N28"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="H141:L141"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="H86:L86"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="H104:L104"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="H173:L173"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="H114:L114"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="H121:L121"/>
-    <mergeCell ref="A154:L155"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="H158:L158"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="H165:L165"/>
     <mergeCell ref="B231:F231"/>
     <mergeCell ref="H231:L231"/>
     <mergeCell ref="A181:A182"/>
@@ -6671,6 +6999,44 @@
     <mergeCell ref="A222:A223"/>
     <mergeCell ref="B226:F226"/>
     <mergeCell ref="H226:L226"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="H173:L173"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="H114:L114"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="H121:L121"/>
+    <mergeCell ref="A154:L155"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="H158:L158"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="H165:L165"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="H141:L141"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="H104:L104"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="B28:N28"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B14:N14"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6681,367 +7047,370 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="3.28515625" customWidth="1"/>
+    <col min="3" max="16" width="3.28515625" style="151" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25">
-      <c r="A1" s="109"/>
+    <row r="1" spans="1:16" ht="24" thickBot="1">
+      <c r="A1" s="104"/>
       <c r="B1" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
     </row>
     <row r="2" spans="1:16" ht="20.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="189" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="153" t="s">
+        <v>328</v>
+      </c>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
     </row>
     <row r="3" spans="1:16" ht="21">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="115">
-        <v>0</v>
-      </c>
-      <c r="D3" s="115">
-        <v>1</v>
-      </c>
-      <c r="E3" s="115">
-        <v>2</v>
-      </c>
-      <c r="F3" s="115">
-        <v>3</v>
-      </c>
-      <c r="G3" s="115">
-        <v>4</v>
-      </c>
-      <c r="H3" s="115">
+      <c r="C3" s="133">
+        <v>0</v>
+      </c>
+      <c r="D3" s="134">
+        <v>1</v>
+      </c>
+      <c r="E3" s="134">
+        <v>2</v>
+      </c>
+      <c r="F3" s="134">
+        <v>3</v>
+      </c>
+      <c r="G3" s="134">
+        <v>4</v>
+      </c>
+      <c r="H3" s="134">
         <v>8</v>
       </c>
-      <c r="I3" s="115">
+      <c r="I3" s="135">
         <v>9</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="118" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="94" t="s">
+      <c r="C10" s="136"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A11" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-    </row>
-    <row r="12" spans="1:16" ht="21" thickBot="1">
-      <c r="A12" s="103" t="s">
+      <c r="C11" s="140"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+    </row>
+    <row r="12" spans="1:16" ht="20.25">
+      <c r="A12" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="105" t="s">
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="186" t="s">
         <v>226</v>
       </c>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="107"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A13" s="96" t="s">
+      <c r="K12" s="187"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="188"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="115">
-        <v>0</v>
-      </c>
-      <c r="D13" s="115">
-        <v>1</v>
-      </c>
-      <c r="E13" s="115">
-        <v>2</v>
-      </c>
-      <c r="F13" s="115">
-        <v>3</v>
-      </c>
-      <c r="G13" s="115">
-        <v>4</v>
-      </c>
-      <c r="H13" s="115">
+      <c r="B13" s="113"/>
+      <c r="C13" s="133">
+        <v>0</v>
+      </c>
+      <c r="D13" s="134">
+        <v>1</v>
+      </c>
+      <c r="E13" s="134">
+        <v>2</v>
+      </c>
+      <c r="F13" s="134">
+        <v>3</v>
+      </c>
+      <c r="G13" s="134">
+        <v>4</v>
+      </c>
+      <c r="H13" s="138">
         <v>8</v>
       </c>
-      <c r="I13" s="115">
+      <c r="I13" s="139">
         <v>9</v>
       </c>
-      <c r="J13" s="100">
-        <v>0</v>
-      </c>
-      <c r="K13" s="100">
-        <v>1</v>
-      </c>
-      <c r="L13" s="100">
-        <v>2</v>
-      </c>
-      <c r="M13" s="100">
-        <v>3</v>
-      </c>
-      <c r="N13" s="100">
-        <v>4</v>
-      </c>
-      <c r="O13" s="100">
+      <c r="J13" s="133">
+        <v>0</v>
+      </c>
+      <c r="K13" s="134">
+        <v>1</v>
+      </c>
+      <c r="L13" s="134">
+        <v>2</v>
+      </c>
+      <c r="M13" s="134">
+        <v>3</v>
+      </c>
+      <c r="N13" s="134">
+        <v>4</v>
+      </c>
+      <c r="O13" s="138">
         <v>8</v>
       </c>
-      <c r="P13" s="100">
+      <c r="P13" s="139">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="94" t="s">
@@ -7050,20 +7419,20 @@
       <c r="B15" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="94" t="s">
@@ -7072,20 +7441,20 @@
       <c r="B16" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="94" t="s">
@@ -7094,20 +7463,20 @@
       <c r="B17" s="123" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="94" t="s">
@@ -7116,20 +7485,20 @@
       <c r="B18" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="94" t="s">
@@ -7138,20 +7507,20 @@
       <c r="B19" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="94" t="s">
@@ -7160,20 +7529,20 @@
       <c r="B20" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="94" t="s">
@@ -7182,20 +7551,20 @@
       <c r="B21" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="94" t="s">
@@ -7204,20 +7573,20 @@
       <c r="B22" s="123" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="94" t="s">
@@ -7226,1114 +7595,1114 @@
       <c r="B23" s="123" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="94" t="s">
         <v>248</v>
       </c>
       <c r="B24" s="123" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
+        <v>327</v>
+      </c>
+      <c r="C24" s="136"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="123" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="123" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="123" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="122" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="122" t="s">
+      <c r="C28" s="136"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A29" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A29" s="94" t="s">
+      <c r="B29" s="124" t="s">
         <v>258</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="C29" s="140"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="143"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A30" s="96" t="s">
+      <c r="B30" s="113"/>
+      <c r="C30" s="156">
+        <v>0</v>
+      </c>
+      <c r="D30" s="157">
+        <v>1</v>
+      </c>
+      <c r="E30" s="157">
+        <v>2</v>
+      </c>
+      <c r="F30" s="157">
+        <v>3</v>
+      </c>
+      <c r="G30" s="157">
+        <v>4</v>
+      </c>
+      <c r="H30" s="157">
+        <v>8</v>
+      </c>
+      <c r="I30" s="158">
+        <v>9</v>
+      </c>
+      <c r="J30" s="156">
+        <v>0</v>
+      </c>
+      <c r="K30" s="157">
+        <v>1</v>
+      </c>
+      <c r="L30" s="157">
+        <v>2</v>
+      </c>
+      <c r="M30" s="157">
+        <v>3</v>
+      </c>
+      <c r="N30" s="157">
+        <v>4</v>
+      </c>
+      <c r="O30" s="157">
+        <v>8</v>
+      </c>
+      <c r="P30" s="158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="115">
-        <v>0</v>
-      </c>
-      <c r="D30" s="115">
-        <v>1</v>
-      </c>
-      <c r="E30" s="115">
-        <v>2</v>
-      </c>
-      <c r="F30" s="115">
-        <v>3</v>
-      </c>
-      <c r="G30" s="115">
-        <v>4</v>
-      </c>
-      <c r="H30" s="115">
-        <v>8</v>
-      </c>
-      <c r="I30" s="115">
-        <v>9</v>
-      </c>
-      <c r="J30" s="100">
-        <v>0</v>
-      </c>
-      <c r="K30" s="100">
-        <v>1</v>
-      </c>
-      <c r="L30" s="100">
-        <v>2</v>
-      </c>
-      <c r="M30" s="100">
-        <v>3</v>
-      </c>
-      <c r="N30" s="100">
-        <v>4</v>
-      </c>
-      <c r="O30" s="100">
-        <v>8</v>
-      </c>
-      <c r="P30" s="100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="94" t="s">
+      <c r="B31" s="154" t="s">
         <v>261</v>
       </c>
-      <c r="B31" s="123" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="139"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="123" t="s">
-        <v>264</v>
-      </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="139"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="123" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="C33" s="133"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="139"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A34" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A34" s="94" t="s">
+      <c r="B34" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="126" t="s">
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="142"/>
+      <c r="P34" s="143"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="159"/>
+      <c r="C35" s="156">
+        <v>0</v>
+      </c>
+      <c r="D35" s="157">
+        <v>1</v>
+      </c>
+      <c r="E35" s="157">
+        <v>2</v>
+      </c>
+      <c r="F35" s="157">
+        <v>3</v>
+      </c>
+      <c r="G35" s="157">
+        <v>4</v>
+      </c>
+      <c r="H35" s="157">
+        <v>8</v>
+      </c>
+      <c r="I35" s="158">
+        <v>9</v>
+      </c>
+      <c r="J35" s="156">
+        <v>0</v>
+      </c>
+      <c r="K35" s="157">
+        <v>1</v>
+      </c>
+      <c r="L35" s="157">
+        <v>2</v>
+      </c>
+      <c r="M35" s="157">
+        <v>3</v>
+      </c>
+      <c r="N35" s="157">
+        <v>4</v>
+      </c>
+      <c r="O35" s="157">
+        <v>8</v>
+      </c>
+      <c r="P35" s="158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="105" t="s">
         <v>268</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A35" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="115">
-        <v>0</v>
-      </c>
-      <c r="D35" s="115">
-        <v>1</v>
-      </c>
-      <c r="E35" s="115">
-        <v>2</v>
-      </c>
-      <c r="F35" s="115">
-        <v>3</v>
-      </c>
-      <c r="G35" s="115">
-        <v>4</v>
-      </c>
-      <c r="H35" s="115">
-        <v>8</v>
-      </c>
-      <c r="I35" s="115">
-        <v>9</v>
-      </c>
-      <c r="J35" s="100">
-        <v>0</v>
-      </c>
-      <c r="K35" s="100">
-        <v>1</v>
-      </c>
-      <c r="L35" s="100">
-        <v>2</v>
-      </c>
-      <c r="M35" s="100">
-        <v>3</v>
-      </c>
-      <c r="N35" s="100">
-        <v>4</v>
-      </c>
-      <c r="O35" s="100">
-        <v>8</v>
-      </c>
-      <c r="P35" s="100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="94" t="s">
+      <c r="B36" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="B36" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="139"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="B37" s="98" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="139"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="B38" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="139"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="B39" s="125" t="s">
         <v>275</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="C39" s="133"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="139"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A40" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="112"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A40" s="94" t="s">
+      <c r="B40" s="161" t="s">
         <v>277</v>
       </c>
-      <c r="B40" s="98" t="s">
+      <c r="C40" s="144"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="145"/>
+      <c r="L40" s="145"/>
+      <c r="M40" s="145"/>
+      <c r="N40" s="145"/>
+      <c r="O40" s="142"/>
+      <c r="P40" s="143"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="162"/>
+      <c r="C41" s="156">
+        <v>0</v>
+      </c>
+      <c r="D41" s="157">
+        <v>1</v>
+      </c>
+      <c r="E41" s="157">
+        <v>2</v>
+      </c>
+      <c r="F41" s="157">
+        <v>3</v>
+      </c>
+      <c r="G41" s="157">
+        <v>4</v>
+      </c>
+      <c r="H41" s="157">
+        <v>8</v>
+      </c>
+      <c r="I41" s="158">
+        <v>9</v>
+      </c>
+      <c r="J41" s="156">
+        <v>0</v>
+      </c>
+      <c r="K41" s="157">
+        <v>1</v>
+      </c>
+      <c r="L41" s="157">
+        <v>2</v>
+      </c>
+      <c r="M41" s="157">
+        <v>3</v>
+      </c>
+      <c r="N41" s="157">
+        <v>4</v>
+      </c>
+      <c r="O41" s="157">
+        <v>8</v>
+      </c>
+      <c r="P41" s="158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A41" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="115">
-        <v>0</v>
-      </c>
-      <c r="D41" s="115">
-        <v>1</v>
-      </c>
-      <c r="E41" s="115">
-        <v>2</v>
-      </c>
-      <c r="F41" s="115">
-        <v>3</v>
-      </c>
-      <c r="G41" s="115">
-        <v>4</v>
-      </c>
-      <c r="H41" s="115">
-        <v>8</v>
-      </c>
-      <c r="I41" s="115">
-        <v>9</v>
-      </c>
-      <c r="J41" s="100">
-        <v>0</v>
-      </c>
-      <c r="K41" s="100">
-        <v>1</v>
-      </c>
-      <c r="L41" s="100">
-        <v>2</v>
-      </c>
-      <c r="M41" s="100">
-        <v>3</v>
-      </c>
-      <c r="N41" s="100">
-        <v>4</v>
-      </c>
-      <c r="O41" s="100">
-        <v>8</v>
-      </c>
-      <c r="P41" s="100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="94" t="s">
+      <c r="B42" s="160" t="s">
         <v>279</v>
       </c>
-      <c r="B42" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="139"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="B43" s="98" t="s">
-        <v>282</v>
-      </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="112"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
+      <c r="O43" s="138"/>
+      <c r="P43" s="139"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="125" t="s">
         <v>283</v>
       </c>
-      <c r="B44" s="98" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="108"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="112"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
+      <c r="N44" s="134"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="139"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="B45" s="98" t="s">
-        <v>286</v>
-      </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108"/>
-      <c r="N45" s="108"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="112"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
+      <c r="N45" s="134"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="139"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="94" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="B46" s="98" t="s">
+      <c r="C46" s="133"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="138"/>
+      <c r="P46" s="139"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A47" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="112"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A47" s="94" t="s">
+      <c r="B47" s="161" t="s">
         <v>289</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
+      <c r="M47" s="145"/>
+      <c r="N47" s="145"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="143"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="112"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A48" s="96" t="s">
+      <c r="B48" s="159"/>
+      <c r="C48" s="156">
+        <v>0</v>
+      </c>
+      <c r="D48" s="157">
+        <v>1</v>
+      </c>
+      <c r="E48" s="157">
+        <v>2</v>
+      </c>
+      <c r="F48" s="157">
+        <v>3</v>
+      </c>
+      <c r="G48" s="157">
+        <v>4</v>
+      </c>
+      <c r="H48" s="157">
+        <v>8</v>
+      </c>
+      <c r="I48" s="158">
+        <v>9</v>
+      </c>
+      <c r="J48" s="156">
+        <v>0</v>
+      </c>
+      <c r="K48" s="157">
+        <v>1</v>
+      </c>
+      <c r="L48" s="157">
+        <v>2</v>
+      </c>
+      <c r="M48" s="157">
+        <v>3</v>
+      </c>
+      <c r="N48" s="157">
+        <v>4</v>
+      </c>
+      <c r="O48" s="157">
+        <v>8</v>
+      </c>
+      <c r="P48" s="158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="105" t="s">
         <v>291</v>
       </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="115">
-        <v>0</v>
-      </c>
-      <c r="D48" s="115">
-        <v>1</v>
-      </c>
-      <c r="E48" s="115">
-        <v>2</v>
-      </c>
-      <c r="F48" s="115">
-        <v>3</v>
-      </c>
-      <c r="G48" s="115">
-        <v>4</v>
-      </c>
-      <c r="H48" s="115">
-        <v>8</v>
-      </c>
-      <c r="I48" s="115">
-        <v>9</v>
-      </c>
-      <c r="J48" s="100">
-        <v>0</v>
-      </c>
-      <c r="K48" s="100">
-        <v>1</v>
-      </c>
-      <c r="L48" s="100">
-        <v>2</v>
-      </c>
-      <c r="M48" s="100">
-        <v>3</v>
-      </c>
-      <c r="N48" s="100">
-        <v>4</v>
-      </c>
-      <c r="O48" s="100">
-        <v>8</v>
-      </c>
-      <c r="P48" s="100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="94" t="s">
+      <c r="B49" s="160" t="s">
         <v>292</v>
       </c>
-      <c r="B49" s="98" t="s">
-        <v>293</v>
-      </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="108"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="112"/>
-      <c r="P49" s="112"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
+      <c r="N49" s="134"/>
+      <c r="O49" s="138"/>
+      <c r="P49" s="139"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="94" t="s">
+        <v>293</v>
+      </c>
+      <c r="B50" s="125" t="s">
         <v>294</v>
       </c>
-      <c r="B50" s="98" t="s">
-        <v>295</v>
-      </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="108"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="108"/>
-      <c r="M50" s="108"/>
-      <c r="N50" s="108"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="112"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
+      <c r="N50" s="134"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="139"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="94" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="125" t="s">
         <v>296</v>
       </c>
-      <c r="B51" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="108"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="112"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="139"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
+      <c r="N51" s="134"/>
+      <c r="O51" s="138"/>
+      <c r="P51" s="139"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" s="125" t="s">
         <v>298</v>
       </c>
-      <c r="B52" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="108"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="112"/>
-      <c r="P52" s="112"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="139"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
+      <c r="N52" s="134"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="139"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" s="125" t="s">
         <v>300</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="C53" s="133"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
+      <c r="N53" s="134"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="139"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A54" s="109" t="s">
         <v>301</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="108"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="112"/>
-      <c r="P53" s="112"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A54" s="94" t="s">
+      <c r="B54" s="161" t="s">
         <v>302</v>
       </c>
-      <c r="B54" s="98" t="s">
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="143"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="145"/>
+      <c r="L54" s="145"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="145"/>
+      <c r="O54" s="142"/>
+      <c r="P54" s="143"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="159"/>
+      <c r="C55" s="156">
+        <v>0</v>
+      </c>
+      <c r="D55" s="157">
+        <v>1</v>
+      </c>
+      <c r="E55" s="157">
+        <v>2</v>
+      </c>
+      <c r="F55" s="157">
+        <v>3</v>
+      </c>
+      <c r="G55" s="157">
+        <v>4</v>
+      </c>
+      <c r="H55" s="157">
+        <v>8</v>
+      </c>
+      <c r="I55" s="158">
+        <v>9</v>
+      </c>
+      <c r="J55" s="156">
+        <v>0</v>
+      </c>
+      <c r="K55" s="157">
+        <v>1</v>
+      </c>
+      <c r="L55" s="157">
+        <v>2</v>
+      </c>
+      <c r="M55" s="157">
+        <v>3</v>
+      </c>
+      <c r="N55" s="157">
+        <v>4</v>
+      </c>
+      <c r="O55" s="157">
+        <v>8</v>
+      </c>
+      <c r="P55" s="158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="105" t="s">
         <v>303</v>
       </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="112"/>
-      <c r="P54" s="112"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A55" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="99"/>
-      <c r="C55" s="115">
-        <v>0</v>
-      </c>
-      <c r="D55" s="115">
-        <v>1</v>
-      </c>
-      <c r="E55" s="115">
-        <v>2</v>
-      </c>
-      <c r="F55" s="115">
-        <v>3</v>
-      </c>
-      <c r="G55" s="115">
-        <v>4</v>
-      </c>
-      <c r="H55" s="115">
-        <v>8</v>
-      </c>
-      <c r="I55" s="115">
-        <v>9</v>
-      </c>
-      <c r="J55" s="100">
-        <v>0</v>
-      </c>
-      <c r="K55" s="100">
-        <v>1</v>
-      </c>
-      <c r="L55" s="100">
-        <v>2</v>
-      </c>
-      <c r="M55" s="100">
-        <v>3</v>
-      </c>
-      <c r="N55" s="100">
-        <v>4</v>
-      </c>
-      <c r="O55" s="100">
-        <v>8</v>
-      </c>
-      <c r="P55" s="100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="94" t="s">
+      <c r="B56" s="160" t="s">
         <v>304</v>
       </c>
-      <c r="B56" s="98" t="s">
-        <v>305</v>
-      </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="112"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
+      <c r="N56" s="134"/>
+      <c r="O56" s="138"/>
+      <c r="P56" s="139"/>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="B57" s="125" t="s">
         <v>306</v>
       </c>
-      <c r="B57" s="98" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="108"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="112"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="139"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
+      <c r="N57" s="134"/>
+      <c r="O57" s="138"/>
+      <c r="P57" s="139"/>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="94" t="s">
+        <v>307</v>
+      </c>
+      <c r="B58" s="125" t="s">
         <v>308</v>
       </c>
-      <c r="B58" s="98" t="s">
-        <v>309</v>
-      </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="108"/>
-      <c r="K58" s="108"/>
-      <c r="L58" s="108"/>
-      <c r="M58" s="108"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="112"/>
-      <c r="P58" s="112"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
+      <c r="N58" s="134"/>
+      <c r="O58" s="138"/>
+      <c r="P58" s="139"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="125" t="s">
         <v>310</v>
       </c>
-      <c r="B59" s="98" t="s">
-        <v>311</v>
-      </c>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="108"/>
-      <c r="L59" s="108"/>
-      <c r="M59" s="108"/>
-      <c r="N59" s="108"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="112"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="139"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
+      <c r="N59" s="134"/>
+      <c r="O59" s="138"/>
+      <c r="P59" s="139"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="94" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="125" t="s">
         <v>312</v>
       </c>
-      <c r="B60" s="98" t="s">
+      <c r="C60" s="133"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="139"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="138"/>
+      <c r="P60" s="139"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A61" s="109" t="s">
         <v>313</v>
       </c>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="108"/>
-      <c r="N60" s="108"/>
-      <c r="O60" s="112"/>
-      <c r="P60" s="112"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A61" s="94" t="s">
+      <c r="B61" s="161" t="s">
         <v>314</v>
       </c>
-      <c r="B61" s="98" t="s">
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="142"/>
+      <c r="I61" s="143"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="145"/>
+      <c r="L61" s="145"/>
+      <c r="M61" s="145"/>
+      <c r="N61" s="145"/>
+      <c r="O61" s="142"/>
+      <c r="P61" s="143"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="159"/>
+      <c r="C62" s="156">
+        <v>0</v>
+      </c>
+      <c r="D62" s="157">
+        <v>1</v>
+      </c>
+      <c r="E62" s="157">
+        <v>2</v>
+      </c>
+      <c r="F62" s="157">
+        <v>3</v>
+      </c>
+      <c r="G62" s="157">
+        <v>4</v>
+      </c>
+      <c r="H62" s="157">
+        <v>8</v>
+      </c>
+      <c r="I62" s="158">
+        <v>9</v>
+      </c>
+      <c r="J62" s="156">
+        <v>0</v>
+      </c>
+      <c r="K62" s="157">
+        <v>1</v>
+      </c>
+      <c r="L62" s="157">
+        <v>2</v>
+      </c>
+      <c r="M62" s="157">
+        <v>3</v>
+      </c>
+      <c r="N62" s="157">
+        <v>4</v>
+      </c>
+      <c r="O62" s="157">
+        <v>8</v>
+      </c>
+      <c r="P62" s="158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="108"/>
-      <c r="M61" s="108"/>
-      <c r="N61" s="108"/>
-      <c r="O61" s="112"/>
-      <c r="P61" s="112"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A62" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="115">
-        <v>0</v>
-      </c>
-      <c r="D62" s="115">
-        <v>1</v>
-      </c>
-      <c r="E62" s="115">
-        <v>2</v>
-      </c>
-      <c r="F62" s="115">
-        <v>3</v>
-      </c>
-      <c r="G62" s="115">
-        <v>4</v>
-      </c>
-      <c r="H62" s="115">
-        <v>8</v>
-      </c>
-      <c r="I62" s="115">
-        <v>9</v>
-      </c>
-      <c r="J62" s="100">
-        <v>0</v>
-      </c>
-      <c r="K62" s="100">
-        <v>1</v>
-      </c>
-      <c r="L62" s="100">
-        <v>2</v>
-      </c>
-      <c r="M62" s="100">
-        <v>3</v>
-      </c>
-      <c r="N62" s="100">
-        <v>4</v>
-      </c>
-      <c r="O62" s="100">
-        <v>8</v>
-      </c>
-      <c r="P62" s="100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="94" t="s">
+      <c r="B63" s="160" t="s">
         <v>316</v>
       </c>
-      <c r="B63" s="98" t="s">
+      <c r="C63" s="133"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="139"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="138"/>
+      <c r="P63" s="139"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A64" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="115"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="108"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="108"/>
-      <c r="M63" s="108"/>
-      <c r="N63" s="108"/>
-      <c r="O63" s="112"/>
-      <c r="P63" s="112"/>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="94" t="s">
+      <c r="B64" s="125" t="s">
         <v>318</v>
       </c>
-      <c r="B64" s="98" t="s">
-        <v>319</v>
-      </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="108"/>
-      <c r="K64" s="108"/>
-      <c r="L64" s="108"/>
-      <c r="M64" s="108"/>
-      <c r="N64" s="108"/>
-      <c r="O64" s="112"/>
-      <c r="P64" s="112"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="142"/>
+      <c r="I64" s="143"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="145"/>
+      <c r="L64" s="145"/>
+      <c r="M64" s="145"/>
+      <c r="N64" s="145"/>
+      <c r="O64" s="142"/>
+      <c r="P64" s="143"/>
     </row>
     <row r="65" spans="1:12" ht="20.25">
-      <c r="A65" s="103" t="s">
+      <c r="A65" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="B65" s="104" t="s">
+      <c r="B65" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="113">
-        <v>0</v>
-      </c>
-      <c r="D65" s="113">
-        <v>1</v>
-      </c>
-      <c r="E65" s="113">
-        <v>2</v>
-      </c>
-      <c r="F65" s="113">
-        <v>3</v>
-      </c>
-      <c r="G65" s="113">
-        <v>4</v>
-      </c>
-      <c r="H65" s="114">
-        <v>0</v>
-      </c>
-      <c r="I65" s="114">
-        <v>1</v>
-      </c>
-      <c r="J65" s="114">
-        <v>2</v>
-      </c>
-      <c r="K65" s="114">
-        <v>3</v>
-      </c>
-      <c r="L65" s="114">
+      <c r="C65" s="146">
+        <v>0</v>
+      </c>
+      <c r="D65" s="147">
+        <v>1</v>
+      </c>
+      <c r="E65" s="147">
+        <v>2</v>
+      </c>
+      <c r="F65" s="147">
+        <v>3</v>
+      </c>
+      <c r="G65" s="148">
+        <v>4</v>
+      </c>
+      <c r="H65" s="149">
+        <v>0</v>
+      </c>
+      <c r="I65" s="150">
+        <v>1</v>
+      </c>
+      <c r="J65" s="163">
+        <v>2</v>
+      </c>
+      <c r="K65" s="163">
+        <v>3</v>
+      </c>
+      <c r="L65" s="164">
         <v>4</v>
       </c>
     </row>
@@ -8341,165 +8710,173 @@
       <c r="A66" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="B66" s="98" t="s">
+      <c r="B66" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="108"/>
-      <c r="K66" s="108"/>
-      <c r="L66" s="108"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="135"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="B67" s="98" t="s">
+      <c r="B67" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="108"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="108"/>
-      <c r="L67" s="108"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="134"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="135"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B68" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="108"/>
-      <c r="J68" s="108"/>
-      <c r="K68" s="108"/>
-      <c r="L68" s="108"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="137"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="135"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="98" t="s">
+      <c r="B69" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="108"/>
-      <c r="I69" s="108"/>
-      <c r="J69" s="108"/>
-      <c r="K69" s="108"/>
-      <c r="L69" s="108"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="134"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="134"/>
+      <c r="L69" s="135"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="98" t="s">
+      <c r="B70" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="108"/>
-      <c r="I70" s="108"/>
-      <c r="J70" s="108"/>
-      <c r="K70" s="108"/>
-      <c r="L70" s="108"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="134"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="135"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="98" t="s">
+      <c r="B71" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="108"/>
-      <c r="I71" s="108"/>
-      <c r="J71" s="108"/>
-      <c r="K71" s="108"/>
-      <c r="L71" s="108"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="134"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="135"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="98" t="s">
+      <c r="B72" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
-      <c r="J72" s="108"/>
-      <c r="K72" s="108"/>
-      <c r="L72" s="108"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="137"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="152"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="134"/>
+      <c r="L72" s="135"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="B73" s="98" t="s">
+      <c r="B73" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="108"/>
-      <c r="I73" s="108"/>
-      <c r="J73" s="108"/>
-      <c r="K73" s="108"/>
-      <c r="L73" s="108"/>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="C73" s="136"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="152"/>
+      <c r="H73" s="133"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="134"/>
+      <c r="K73" s="134"/>
+      <c r="L73" s="135"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" thickBot="1">
       <c r="A74" s="93"/>
       <c r="B74" s="93"/>
-      <c r="C74" s="119" t="s">
+      <c r="C74" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="D74" s="120"/>
-      <c r="E74" s="120"/>
-      <c r="F74" s="120"/>
-      <c r="G74" s="121"/>
-      <c r="H74" s="116" t="s">
+      <c r="D74" s="193"/>
+      <c r="E74" s="193"/>
+      <c r="F74" s="193"/>
+      <c r="G74" s="194"/>
+      <c r="H74" s="195" t="s">
         <v>200</v>
       </c>
-      <c r="I74" s="117"/>
-      <c r="J74" s="117"/>
-      <c r="K74" s="117"/>
-      <c r="L74" s="118"/>
+      <c r="I74" s="196"/>
+      <c r="J74" s="196"/>
+      <c r="K74" s="196"/>
+      <c r="L74" s="197"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>